--- a/biology/Zoologie/Erebidae/Erebidae.xlsx
+++ b/biology/Zoologie/Erebidae/Erebidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Erebidae sont une famille de lépidoptères (papillons) à activité souvent nocturne. 
 Récemment sujette à d'importants remaniements nomenclaturaux, cette famille inclut aujourd'hui toutes les espèces naguère placées dans les familles des Arctiidae et des Lymantriidae (rétrogradées au rang de sous-familles), ainsi que plusieurs sous-familles auparavant placées dans les Noctuidae.
-Cela fait des Erebidae la famille de lépidoptères la plus diversifiée, avec plus de 24 500 espèces décrites[1].
+Cela fait des Erebidae la famille de lépidoptères la plus diversifiée, avec plus de 24 500 espèces décrites.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On peut rencontrer des espèces de cette famille sur tous les continents sauf l'Antarctique. 
 </t>
@@ -544,7 +558,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez certaines espèces de cette famille, les imagos (papillons adultes) ne se nourrissent pas.[réf. nécessaire]
 Beaucoup cependant se nourrissent, et sont même très attirés par les fleurs, les fruits en décomposition, la miellée, etc.
@@ -576,13 +592,50 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Erebidae a été décrite par l’entomologiste anglais William Elford Leach en 1815.
 Son contenu a beaucoup évolué à la suite des études de phylogénie moléculaire menées depuis les années 2000.
-Dans la nouvelle classification, les Arctiinae et les Lymantriinae correspondent respectivement aux anciennes familles des Lymantriidae et des Arctiidae[2]. 
-Liste des sous-familles
-Avertissement : la systématique des Erebidae (et plus largement des Noctuoidea) est en évolution rapide, et les différentes sources peuvent fournir des classifications très disparates concernant les rangs taxinomiques situées entre les ordres et les genres. 
+Dans la nouvelle classification, les Arctiinae et les Lymantriinae correspondent respectivement aux anciennes familles des Lymantriidae et des Arctiidae. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Erebidae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erebidae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des sous-familles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avertissement : la systématique des Erebidae (et plus largement des Noctuoidea) est en évolution rapide, et les différentes sources peuvent fournir des classifications très disparates concernant les rangs taxinomiques situées entre les ordres et les genres. 
 Aganainae
 Anobinae Holloway, 2005
 Arctiinae Leach, 1815
